--- a/archivos/20_comunas_mas_grandes.xlsx
+++ b/archivos/20_comunas_mas_grandes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>region</t>
   </si>
@@ -26,6 +26,9 @@
     <t>encuentros</t>
   </si>
   <si>
+    <t>encuentros_10000hab</t>
+  </si>
+  <si>
     <t>pcent_elas</t>
   </si>
   <si>
@@ -38,142 +41,190 @@
     <t>color</t>
   </si>
   <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>278</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
   </si>
   <si>
     <t>Tarapacá</t>
   </si>
   <si>
-    <t>Antofagasta</t>
-  </si>
-  <si>
-    <t>Atacama</t>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Providencia</t>
+  </si>
+  <si>
+    <t>Ñuñoa</t>
+  </si>
+  <si>
+    <t>Las Condes</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valparaíso </t>
+  </si>
+  <si>
+    <t>La Florida</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antofagasta </t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
   </si>
   <si>
     <t>Iquique</t>
   </si>
   <si>
-    <t>Alto Hospicio</t>
-  </si>
-  <si>
-    <t>Pica</t>
-  </si>
-  <si>
-    <t>Pozo Almonte</t>
-  </si>
-  <si>
-    <t>Huara</t>
-  </si>
-  <si>
-    <t>Colchane</t>
-  </si>
-  <si>
-    <t>Camiña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antofagasta </t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>Tocopilla</t>
-  </si>
-  <si>
-    <t>Mejillones</t>
-  </si>
-  <si>
-    <t>Taltal</t>
-  </si>
-  <si>
-    <t>San Pedro de Atacama</t>
-  </si>
-  <si>
-    <t>Sierra Gorda</t>
-  </si>
-  <si>
-    <t>María Elena</t>
-  </si>
-  <si>
-    <t>Ollague</t>
-  </si>
-  <si>
-    <t>Copiapó</t>
-  </si>
-  <si>
-    <t>Vallenar</t>
-  </si>
-  <si>
-    <t>Caldera</t>
-  </si>
-  <si>
-    <t>Tierra Amarilla</t>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>#717290</t>
+  </si>
+  <si>
+    <t>#F47B4D</t>
+  </si>
+  <si>
+    <t>#FDB56E</t>
+  </si>
+  <si>
+    <t>#FC835E</t>
+  </si>
+  <si>
+    <t>#544076</t>
   </si>
   <si>
     <t>#0054A4</t>
   </si>
   <si>
-    <t>#544076</t>
-  </si>
-  <si>
-    <t>#A92C48</t>
+    <t>#EE2B2A</t>
+  </si>
+  <si>
+    <t>#804A62</t>
+  </si>
+  <si>
+    <t>#FEE67E</t>
+  </si>
+  <si>
+    <t>#DD7368</t>
+  </si>
+  <si>
+    <t>#785E79</t>
   </si>
 </sst>
 </file>
@@ -250,585 +301,648 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>145881.0</v>
+        <v>139180.0</v>
       </c>
       <c r="E2" t="n">
-        <v>229.0</v>
+        <v>965.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.525</v>
+        <v>69.335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.821</v>
+        <v>6.425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
+        <v>1.735</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>62947.0</v>
+        <v>108741.0</v>
       </c>
       <c r="E3" t="n">
-        <v>30.0</v>
+        <v>656.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>60.327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
+        <v>4.368</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>17334.0</v>
+        <v>123519.0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.0</v>
+        <v>499.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.093</v>
+        <v>40.399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.029</v>
+        <v>3.322</v>
       </c>
       <c r="H4" t="n">
-        <v>0.793</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
+        <v>1.621</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>13529.0</v>
+        <v>238274.0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0</v>
+        <v>473.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107</v>
+        <v>19.851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.054</v>
+        <v>3.149</v>
       </c>
       <c r="H5" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
+        <v>2.286</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>2339.0</v>
+        <v>561464.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>427.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.033</v>
+        <v>7.605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.021</v>
+        <v>2.843</v>
       </c>
       <c r="H6" t="n">
-        <v>0.676</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
+        <v>1.932</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>1333.0</v>
+        <v>219953.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>347.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>15.776</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0070</v>
+        <v>2.31</v>
       </c>
       <c r="H7" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
+        <v>1.758</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>679.0</v>
+        <v>323562.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>289.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.013</v>
+        <v>8.932</v>
       </c>
       <c r="G8" t="n">
-        <v>0.013</v>
+        <v>1.924</v>
       </c>
       <c r="H8" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
+        <v>2.184</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>284842.0</v>
+        <v>185332.0</v>
       </c>
       <c r="E9" t="n">
-        <v>267.0</v>
+        <v>285.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.778</v>
+        <v>15.378</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32</v>
+        <v>1.898</v>
       </c>
       <c r="H9" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+        <v>1.464</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" t="n">
-        <v>110113.0</v>
+        <v>240731.0</v>
       </c>
       <c r="E10" t="n">
-        <v>166.0</v>
+        <v>284.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.105</v>
+        <v>11.797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.677</v>
+        <v>1.891</v>
       </c>
       <c r="H10" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+        <v>1.544</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>16233.0</v>
+        <v>100228.0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.0</v>
+        <v>279.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.087</v>
+        <v>27.837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.128</v>
+        <v>1.858</v>
       </c>
       <c r="H11" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
+        <v>0.968</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>8387.0</v>
+        <v>77244.0</v>
       </c>
       <c r="E12" t="n">
-        <v>9.0</v>
+        <v>274.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>35.472</v>
       </c>
       <c r="G12" t="n">
-        <v>0.049</v>
+        <v>1.824</v>
       </c>
       <c r="H12" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+        <v>0.799</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>8069.0</v>
+        <v>284842.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5.0</v>
+        <v>267.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.033</v>
+        <v>9.374</v>
       </c>
       <c r="G13" t="n">
-        <v>0.059</v>
+        <v>1.778</v>
       </c>
       <c r="H13" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
+        <v>1.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>7778.0</v>
+        <v>236650.0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.0</v>
+        <v>242.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.027</v>
+        <v>10.226</v>
       </c>
       <c r="G14" t="n">
-        <v>0.031</v>
+        <v>1.611</v>
       </c>
       <c r="H14" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+        <v>2.028</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D15" t="n">
-        <v>3308.0</v>
+        <v>145881.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>229.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0070</v>
+        <v>15.698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0080</v>
+        <v>1.525</v>
       </c>
       <c r="H15" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
+        <v>0.821</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>2840.0</v>
+        <v>654544.0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0</v>
+        <v>221.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.013</v>
+        <v>3.376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.029</v>
+        <v>1.471</v>
       </c>
       <c r="H16" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
+        <v>2.41</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>177.0</v>
+        <v>165952.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>205.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0070</v>
+        <v>12.353</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0030</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
+        <v>1.365</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D18" t="n">
-        <v>123616.0</v>
+        <v>137539.0</v>
       </c>
       <c r="E18" t="n">
-        <v>152.0</v>
+        <v>198.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.012</v>
+        <v>14.396</v>
       </c>
       <c r="G18" t="n">
-        <v>0.669</v>
+        <v>1.318</v>
       </c>
       <c r="H18" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
+        <v>0.942</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D19" t="n">
-        <v>35719.0</v>
+        <v>191274.0</v>
       </c>
       <c r="E19" t="n">
-        <v>42.0</v>
+        <v>197.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.28</v>
+        <v>10.299</v>
       </c>
       <c r="G19" t="n">
-        <v>0.292</v>
+        <v>1.312</v>
       </c>
       <c r="H19" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.731</v>
       </c>
-      <c r="I19" t="s">
-        <v>53</v>
+      <c r="J19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D20" t="n">
-        <v>11573.0</v>
+        <v>184886.0</v>
       </c>
       <c r="E20" t="n">
-        <v>12.0</v>
+        <v>193.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08</v>
+        <v>10.439</v>
       </c>
       <c r="G20" t="n">
-        <v>0.092</v>
+        <v>1.285</v>
       </c>
       <c r="H20" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="I20" t="s">
-        <v>53</v>
+        <v>1.044</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
-        <v>10548.0</v>
+        <v>128296.0</v>
       </c>
       <c r="E21" t="n">
-        <v>17.0</v>
+        <v>188.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.113</v>
+        <v>14.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.077</v>
+        <v>1.252</v>
       </c>
       <c r="H21" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
+        <v>0.927</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/20_comunas_mas_grandes.xlsx
+++ b/archivos/20_comunas_mas_grandes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>region</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
   <si>
     <t>287</t>
@@ -304,16 +307,19 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>139180.0</v>
@@ -334,18 +340,21 @@
         <v>0.807</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
         <v>108741.0</v>
@@ -366,18 +375,21 @@
         <v>0.911</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
         <v>123519.0</v>
@@ -398,18 +410,21 @@
         <v>0.86</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
         <v>238274.0</v>
@@ -430,18 +445,21 @@
         <v>0.933</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>561464.0</v>
@@ -462,18 +480,21 @@
         <v>0.773</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>219953.0</v>
@@ -494,18 +515,21 @@
         <v>0.701</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>323562.0</v>
@@ -526,18 +550,21 @@
         <v>0.804</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
         <v>185332.0</v>
@@ -558,18 +585,21 @@
         <v>0.757</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>240731.0</v>
@@ -590,18 +620,21 @@
         <v>0.763</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>100228.0</v>
@@ -622,18 +655,21 @@
         <v>0.697</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>77244.0</v>
@@ -654,18 +690,21 @@
         <v>0.883</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
         <v>284842.0</v>
@@ -686,18 +725,21 @@
         <v>0.734</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
         <v>236650.0</v>
@@ -718,18 +760,21 @@
         <v>0.766</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
         <v>145881.0</v>
@@ -750,18 +795,21 @@
         <v>0.766</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
         <v>654544.0</v>
@@ -782,18 +830,21 @@
         <v>0.902</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>165952.0</v>
@@ -814,18 +865,21 @@
         <v>0.781</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="n">
         <v>137539.0</v>
@@ -846,18 +900,21 @@
         <v>0.736</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
         <v>191274.0</v>
@@ -878,18 +935,21 @@
         <v>0.731</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
         <v>184886.0</v>
@@ -910,18 +970,21 @@
         <v>0.718</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
         <v>128296.0</v>
@@ -942,7 +1005,10 @@
         <v>0.754</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="K21" t="n">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
